--- a/docs/uc_page_htmls/downloaded_excels/UC610-base_order_info.xlsx
+++ b/docs/uc_page_htmls/downloaded_excels/UC610-base_order_info.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,10 +469,15 @@
       </c>
       <c r="J1" t="inlineStr">
         <is>
+          <t>customer_source</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
           <t>status</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>status_date</t>
         </is>
@@ -521,10 +526,15 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Delivered</t>
+          <t>WALK-IN</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t>03 Feb 2026, 12:12 PM</t>
         </is>
@@ -573,10 +583,15 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Delivered</t>
+          <t>WALK-IN</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
         <is>
           <t>03 Feb 2026, 10:43 AM</t>
         </is>
@@ -630,10 +645,15 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Delivered</t>
+          <t>APP</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>31 Jan 2026, 05:56 PM</t>
         </is>
@@ -682,10 +702,15 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Delivered</t>
+          <t>WALK-IN</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>30 Jan 2026, 03:45 PM</t>
         </is>
@@ -734,10 +759,15 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Delivered</t>
+          <t>WALK-IN</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
           <t>30 Jan 2026, 03:40 PM</t>
         </is>
@@ -786,10 +816,15 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Delivered</t>
+          <t>WALK-IN</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>30 Jan 2026, 03:32 PM</t>
         </is>
@@ -838,10 +873,15 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Delivered</t>
+          <t>WALK-IN</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
         <is>
           <t>30 Jan 2026, 03:30 PM</t>
         </is>
@@ -890,10 +930,15 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Delivered</t>
+          <t>WALK-IN</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>30 Jan 2026, 03:27 PM</t>
         </is>
@@ -942,10 +987,15 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Delivered</t>
+          <t>WALK-IN</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
           <t>30 Jan 2026, 01:24 PM</t>
         </is>
@@ -994,10 +1044,15 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Delivered</t>
+          <t>WALK-IN</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>30 Jan 2026, 01:14 PM</t>
         </is>
@@ -1046,10 +1101,15 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Delivered</t>
+          <t>WALK-IN</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>30 Jan 2026, 01:09 PM</t>
         </is>
@@ -1098,10 +1158,15 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Delivered</t>
+          <t>WALK-IN</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>30 Jan 2026, 01:06 PM</t>
         </is>
@@ -1155,10 +1220,15 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Delivered</t>
+          <t>CUSTOMER CARE</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
         <is>
           <t>30 Jan 2026, 11:44 AM</t>
         </is>
@@ -1212,10 +1282,15 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Delivered</t>
+          <t>APP</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
         <is>
           <t>30 Jan 2026, 11:41 AM</t>
         </is>
@@ -1264,10 +1339,15 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Delivered</t>
+          <t>WALK-IN</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
         <is>
           <t>30 Jan 2026, 11:38 AM</t>
         </is>
@@ -1316,10 +1396,15 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Delivered</t>
+          <t>WALK-IN</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
         <is>
           <t>30 Jan 2026, 11:29 AM</t>
         </is>
@@ -1373,10 +1458,15 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Delivered</t>
+          <t>APP</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
         <is>
           <t>30 Jan 2026, 11:26 AM</t>
         </is>
@@ -1425,10 +1515,15 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Delivered</t>
+          <t>WALK-IN</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
         <is>
           <t>30 Jan 2026, 11:17 AM</t>
         </is>
@@ -1477,10 +1572,15 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Delivered</t>
+          <t>WALK-IN</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
         <is>
           <t>30 Jan 2026, 11:15 AM</t>
         </is>
@@ -1529,12 +1629,1871 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Delivered</t>
+          <t>WALK-IN</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
           <t>30 Jan 2026, 11:11 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>UC610-0837</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>28 Jan 2026, 06:10 PM</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Sameer Singal</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9996712662</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2908/203, sector 43,</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>28 Jan 2026, 06:10 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>UC610-0858</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>28 Jan 2026, 04:31 PM</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>surya</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8448271143</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>SECTOR 53 DLF GURGAON , , ,</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>28 Jan 2026, 04:31 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>UC610-0847</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>28 Jan 2026, 04:31 PM</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>surya</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8448271143</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>SECTOR 53 DLF GURGAON , , ,</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>28 Jan 2026, 04:31 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>UC610-0839</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>27 Jan 2026, 01:19 PM</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Combos Saloon</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7836087861</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Vyapar Kendra Sushant lok 1 GF shop 206 , , ,</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>27 Jan 2026, 01:19 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>UC610-0826</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>22 Jan 2026, 12:28 PM</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>kushagraen</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8872674973</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>SUSHANT LOK BLOCK C , , ,</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>22 Jan 2026, 12:28 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>UC610-0828</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>22 Jan 2026, 11:49 AM</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>krishna yadav</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9871767912</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>ardee city sector 52 b15 ground floor , , ,</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>22 Jan 2026, 11:49 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>UC610-0822</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>22 Jan 2026, 11:47 AM</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Utkarsh Mishra</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7007833075</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>3rd floor 1297 sector 43, Lotus avenue,</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>22 Jan 2026, 11:47 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>UC610-0817</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>17 Jan 2026, 03:07 PM</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>22 Jan 2026, 11:45 AM</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Ms. Jesley</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9075226255</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Kaveri Hostel MDi, 1442, Delhi - Jaipur Expy, Block C, Sukhrali, Sector 17, Gurugram, Haryana , ,</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>CUSTOMER CARE</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>22 Jan 2026, 11:45 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>UC610-0816</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>22 Jan 2026, 11:13 AM</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Mayank</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>9878945424</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>3A, 3rd floor , C 2598A, Gold souk mall</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>22 Jan 2026, 11:13 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>UC610-0818</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>22 Jan 2026, 11:13 AM</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>SOUVIK SINHA ROY</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9999161393</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>REGENCY PARK 2 SOCIETY W-185 FLAT , , ,</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>22 Jan 2026, 11:13 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>UC610-0813</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>16 Jan 2026, 07:38 PM</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>22 Jan 2026, 11:00 AM</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Puja Pandey</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>9821204814</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>422, Sector 27,</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>APP</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>22 Jan 2026, 11:00 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>UC610-0811</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>22 Jan 2026, 10:54 AM</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>krishna yadav</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>9871767912</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>ardee city sector 52 b15 ground floor , , ,</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>22 Jan 2026, 10:54 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>UC610-0810</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>22 Jan 2026, 10:50 AM</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ISHITA GUPTA</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9125736020</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1ST FLOOR C1 ARDEE CITY SECTOR 52, , ,</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>22 Jan 2026, 10:50 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>UC610-0528</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>21 Jan 2026, 05:06 PM</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>VANDANA</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>9889563001</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>F704 MAPIL HEIGHT, , ,</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>21 Jan 2026, 05:06 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>UC610-0833</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>21 Jan 2026, 05:05 PM</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>vanshika maheshwari</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7791810225</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>flat no 603 MS07 kendriya vihar sector 56, , ,</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>21 Jan 2026, 05:05 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>UC610-0819</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>21 Jan 2026, 02:12 PM</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Combos Saloon</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7836087861</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Vyapar Kendra Sushant lok 1 GF shop 206 , , ,</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>21 Jan 2026, 02:12 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>UC610-0830</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>21 Jan 2026, 02:12 PM</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Combos Saloon</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7836087861</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Vyapar Kendra Sushant lok 1 GF shop 206 , , ,</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>21 Jan 2026, 02:12 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>UC610-0769</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>05 Jan 2026, 09:38 PM</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>20 Jan 2026, 06:49 PM</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Baibhav</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7739314444</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Plot no. 596, Golf Course Road, Flock coliving sector 43</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>APP</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>20 Jan 2026, 06:49 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>UC610-0774</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>20 Jan 2026, 06:48 PM</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Baibhav</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7739314444</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Plot no. 596, Golf Course Road, Flock coliving sector 43</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>20 Jan 2026, 06:48 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>UC610-0799</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>16 Jan 2026, 10:34 AM</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>shashaank</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>9818934294</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>C 844 A near vyapar, , ,</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>16 Jan 2026, 10:34 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>UC610-0800</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>15 Jan 2026, 07:13 PM</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Rahul</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>9811909170</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>HOUSE NO 122 THIRD FLOOR SUSHANT LOK 1 , , ,</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>15 Jan 2026, 07:13 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>UC610-0781</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>15 Jan 2026, 05:29 PM</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Itisha mam</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>9982156048</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>tower 5 flat no. 1502, , Unitech the palms, south city 1,</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>15 Jan 2026, 05:29 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>UC610-0797</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>13 Jan 2026, 12:49 PM</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>15 Jan 2026, 03:43 PM</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Armaan</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7726881588</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>A55-12, Street Number 55,</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>APP</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>15 Jan 2026, 03:43 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>UC610-0798</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>15 Jan 2026, 03:42 PM</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>stuti verma</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>9682798097</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>first floor 2148 room no 5, sushant lok block c,</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>15 Jan 2026, 03:42 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>UC610-0791</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>11 Jan 2026, 04:15 PM</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>15 Jan 2026, 03:40 PM</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Abhinav Kanaujia</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7307781578</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Room no. 102, First floor, C2934, Block C, Sushant lok phase 1, Sector 43,</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>APP</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>15 Jan 2026, 03:40 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>UC610-0802</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>15 Jan 2026, 03:26 PM</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Itisha mam</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>9982156048</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>tower 5 flat no. 1502, , Unitech the palms, south city 1,</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>15 Jan 2026, 03:26 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>UC610-0738</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>15 Jan 2026, 01:37 PM</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>SAMAR KUMAR</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7700005018</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Stanza living, 152, Silokra Rd, Vijay Vihar, Sector 30, Gurugram, , , ,</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>SHOES</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>15 Jan 2026, 01:37 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>UC610-0805</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>15 Jan 2026, 01:37 PM</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>SAMAR KUMAR</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7700005018</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Stanza living, 152, Silokra Rd, Vijay Vihar, Sector 30, Gurugram, , , ,</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>15 Jan 2026, 01:37 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>UC610-0780</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>09 Jan 2026, 06:56 PM</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>VIJAY YADAV</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>9818867979</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>SECTOR 43, , SECTOR 43,</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>09 Jan 2026, 06:56 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>UC610-0782</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>09 Jan 2026, 01:35 PM</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Combos Saloon</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7836087861</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Vyapar Kendra Sushant lok 1 GF shop 206 , , ,</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>09 Jan 2026, 01:35 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>UC610-0768</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>08 Jan 2026, 05:11 PM</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>surya</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>8448271143</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>SECTOR 53 DLF GURGAON , , ,</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>08 Jan 2026, 05:11 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>UC610-0759</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>04 Jan 2026, 11:38 AM</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>06 Jan 2026, 01:05 PM</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Venkatesh</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7042612642</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>B704, Block B,</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>APP</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>06 Jan 2026, 01:05 PM</t>
         </is>
       </c>
     </row>

--- a/docs/uc_page_htmls/downloaded_excels/UC610-base_order_info.xlsx
+++ b/docs/uc_page_htmls/downloaded_excels/UC610-base_order_info.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,32 +491,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>UC610-0869</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>29 Jan 2026, 10:55 AM</t>
+          <t>UC610-0890</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>31 Jan 2026, 05:56 PM</t>
+          <t>03 Feb 2026, 12:12 PM</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>shreya</t>
+          <t>Combos Saloon</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9084476036</t>
+          <t>7836087861</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Room-306, B 723 ground floor , Sushant Lok Phase I, Gurugram, Haryana 122009, Gurugram,</t>
+          <t>Vyapar Kendra Sushant lok 1 GF shop 206 , , ,</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -531,7 +526,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>WALK-IN</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -541,7 +536,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>31 Jan 2026, 05:56 PM</t>
+          <t>03 Feb 2026, 12:12 PM</t>
         </is>
       </c>
     </row>
@@ -553,32 +548,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>UC610-0836</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>21 Jan 2026, 01:21 PM</t>
+          <t>UC610-0867</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>30 Jan 2026, 11:44 AM</t>
+          <t>03 Feb 2026, 10:43 AM</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Mr. Deepak Sharma</t>
+          <t>Asmita ji</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7017889653</t>
+          <t>9474965201</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Samaspur Village, Sector 51, Gurugram, Haryana , ,</t>
+          <t>C1251-52,, 102,, Near lily park</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -593,7 +583,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>CUSTOMER CARE</t>
+          <t>WALK-IN</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -603,7 +593,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>30 Jan 2026, 11:44 AM</t>
+          <t>03 Feb 2026, 10:43 AM</t>
         </is>
       </c>
     </row>
@@ -615,32 +605,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>UC610-0834</t>
+          <t>UC610-0869</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>21 Jan 2026, 11:11 AM</t>
+          <t>29 Jan 2026, 10:55 AM</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>30 Jan 2026, 11:41 AM</t>
+          <t>31 Jan 2026, 05:56 PM</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Pratham</t>
+          <t>shreya</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9818073147</t>
+          <t>9084476036</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sector-28, Flat-9 , 166,</t>
+          <t>Room-306, B 723 ground floor , Sushant Lok Phase I, Gurugram, Haryana 122009, Gurugram,</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -665,7 +655,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>30 Jan 2026, 11:41 AM</t>
+          <t>31 Jan 2026, 05:56 PM</t>
         </is>
       </c>
     </row>
@@ -677,32 +667,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>UC610-0827</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>19 Jan 2026, 12:56 PM</t>
+          <t>UC610-0868</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>30 Jan 2026, 11:26 AM</t>
+          <t>30 Jan 2026, 03:45 PM</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Samuel</t>
+          <t>Rahul</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9740152113</t>
+          <t>9811909170</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>F-13 Galaxy Apartments, Golf Course Road, Sector 43</t>
+          <t>HOUSE NO 122 THIRD FLOOR SUSHANT LOK 1 , , ,</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -712,12 +697,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Please complete cleaning by Thursday</t>
+          <t>Handle with care</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>WALK-IN</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -727,7 +712,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>30 Jan 2026, 11:26 AM</t>
+          <t>30 Jan 2026, 03:45 PM</t>
         </is>
       </c>
     </row>
@@ -739,32 +724,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>UC610-0817</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>17 Jan 2026, 03:07 PM</t>
+          <t>UC610-0871</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22 Jan 2026, 11:45 AM</t>
+          <t>30 Jan 2026, 03:40 PM</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ms. Jesley</t>
+          <t>Vikash</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9075226255</t>
+          <t>9818584460</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Kaveri Hostel MDi, 1442, Delhi - Jaipur Expy, Block C, Sukhrali, Sector 17, Gurugram, Haryana , ,</t>
+          <t>sec -15 -1</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -779,7 +759,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>CUSTOMER CARE</t>
+          <t>WALK-IN</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -789,7 +769,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>22 Jan 2026, 11:45 AM</t>
+          <t>30 Jan 2026, 03:40 PM</t>
         </is>
       </c>
     </row>
@@ -801,32 +781,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>UC610-0813</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>16 Jan 2026, 07:38 PM</t>
+          <t>UC610-0862</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>22 Jan 2026, 11:00 AM</t>
+          <t>30 Jan 2026, 03:32 PM</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Puja Pandey</t>
+          <t>RAHUL MALIK</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9821204814</t>
+          <t>7906643261</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>422, Sector 27,</t>
+          <t>3rd floor 1297 sector 43, Lotus avenue, , , ,</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -841,7 +816,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>WALK-IN</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -851,7 +826,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>22 Jan 2026, 11:00 AM</t>
+          <t>30 Jan 2026, 03:32 PM</t>
         </is>
       </c>
     </row>
@@ -863,32 +838,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>UC610-0769</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>05 Jan 2026, 09:38 PM</t>
+          <t>UC610-0861</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>20 Jan 2026, 06:49 PM</t>
+          <t>30 Jan 2026, 03:30 PM</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Baibhav</t>
+          <t>Sameer Singal</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7739314444</t>
+          <t>9996712662</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Plot no. 596, Golf Course Road, Flock coliving sector 43</t>
+          <t>2908/203, sector 43,</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -903,7 +873,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>WALK-IN</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -913,7 +883,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>20 Jan 2026, 06:49 PM</t>
+          <t>30 Jan 2026, 03:30 PM</t>
         </is>
       </c>
     </row>
@@ -925,32 +895,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>UC610-0797</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>13 Jan 2026, 12:49 PM</t>
+          <t>UC610-0859</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>15 Jan 2026, 03:43 PM</t>
+          <t>30 Jan 2026, 03:27 PM</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Armaan</t>
+          <t>Puja Pandey</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>7726881588</t>
+          <t>9821204814</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>A55-12, Street Number 55,</t>
+          <t>422, Sector 27,</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -965,7 +930,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>WALK-IN</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -975,7 +940,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>15 Jan 2026, 03:43 PM</t>
+          <t>30 Jan 2026, 03:27 PM</t>
         </is>
       </c>
     </row>
@@ -987,32 +952,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>UC610-0791</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>11 Jan 2026, 04:15 PM</t>
+          <t>UC610-0852</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>15 Jan 2026, 03:40 PM</t>
+          <t>30 Jan 2026, 01:24 PM</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Abhinav Kanaujia</t>
+          <t>Hardeep</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>7307781578</t>
+          <t>7080484656</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Room no. 102, First floor, C2934, Block C, Sushant lok phase 1, Sector 43,</t>
+          <t>DLF PHASE 2, , DLF, DLF</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1027,7 +987,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>WALK-IN</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1037,7 +997,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>15 Jan 2026, 03:40 PM</t>
+          <t>30 Jan 2026, 01:24 PM</t>
         </is>
       </c>
     </row>
@@ -1049,55 +1009,2489 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>UC610-0846</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>30 Jan 2026, 01:14 PM</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Rahul</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9811909170</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>HOUSE NO 122 THIRD FLOOR SUSHANT LOK 1 , , ,</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>30 Jan 2026, 01:14 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>UC610-0845</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>30 Jan 2026, 01:09 PM</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>shashaank</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9818934294</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>C 844 A near vyapar, , ,</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>30 Jan 2026, 01:09 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>UC610-0844</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>30 Jan 2026, 01:06 PM</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>DIA GOEL</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8126410434</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>House No 90, ground floor, sector 27, Gurgaon Haryana 122001, , ,</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>30 Jan 2026, 01:06 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>UC610-0836</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>21 Jan 2026, 01:21 PM</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>30 Jan 2026, 11:44 AM</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Mr. Deepak Sharma</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7017889653</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Samaspur Village, Sector 51, Gurugram, Haryana , ,</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>CUSTOMER CARE</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>30 Jan 2026, 11:44 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>UC610-0834</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>21 Jan 2026, 11:11 AM</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>30 Jan 2026, 11:41 AM</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Pratham</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9818073147</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Sector-28, Flat-9 , 166,</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>APP</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>30 Jan 2026, 11:41 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>UC610-0832</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>30 Jan 2026, 11:38 AM</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>VAIBHAV GOEL</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7082295934</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>SECTOR 30, , SEC 30,</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>30 Jan 2026, 11:38 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>UC610-0829</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>30 Jan 2026, 11:29 AM</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Prithi Jain</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9643635141</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>shop no : 173 sushant lok 1 vyapar kendra sector 43 , , ,</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>30 Jan 2026, 11:29 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>UC610-0827</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>19 Jan 2026, 12:56 PM</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>30 Jan 2026, 11:26 AM</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Samuel</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9740152113</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>F-13 Galaxy Apartments, Golf Course Road, Sector 43</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Please complete cleaning by Thursday</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>APP</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>30 Jan 2026, 11:26 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>UC610-0825</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>30 Jan 2026, 11:17 AM</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>MR . RAJESH</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9810806793</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Orlov court4 / 801A Essel tower., , ,</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>30 Jan 2026, 11:17 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>UC610-0824</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>30 Jan 2026, 11:15 AM</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>nikhil</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9811843113</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>sec 43, , house 851 3rd floor 301,</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>30 Jan 2026, 11:15 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>UC610-0823</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>30 Jan 2026, 11:11 AM</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>varun</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8708774850</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Second Floor,, Tower 5, Landmark Avenue</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>30 Jan 2026, 11:11 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>UC610-0837</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>28 Jan 2026, 06:10 PM</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Sameer Singal</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9996712662</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2908/203, sector 43,</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>28 Jan 2026, 06:10 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>UC610-0858</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>28 Jan 2026, 04:31 PM</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>surya</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8448271143</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>SECTOR 53 DLF GURGAON , , ,</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>28 Jan 2026, 04:31 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>UC610-0847</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>28 Jan 2026, 04:31 PM</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>surya</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8448271143</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>SECTOR 53 DLF GURGAON , , ,</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>28 Jan 2026, 04:31 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>UC610-0839</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>27 Jan 2026, 01:19 PM</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Combos Saloon</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7836087861</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Vyapar Kendra Sushant lok 1 GF shop 206 , , ,</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>27 Jan 2026, 01:19 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>UC610-0826</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>22 Jan 2026, 12:28 PM</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>kushagraen</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8872674973</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>SUSHANT LOK BLOCK C , , ,</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>22 Jan 2026, 12:28 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>UC610-0828</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>22 Jan 2026, 11:49 AM</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>krishna yadav</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9871767912</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>ardee city sector 52 b15 ground floor , , ,</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>22 Jan 2026, 11:49 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>UC610-0822</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>22 Jan 2026, 11:47 AM</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Utkarsh Mishra</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7007833075</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>3rd floor 1297 sector 43, Lotus avenue,</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>22 Jan 2026, 11:47 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>UC610-0817</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>17 Jan 2026, 03:07 PM</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>22 Jan 2026, 11:45 AM</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Ms. Jesley</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9075226255</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Kaveri Hostel MDi, 1442, Delhi - Jaipur Expy, Block C, Sukhrali, Sector 17, Gurugram, Haryana , ,</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>CUSTOMER CARE</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>22 Jan 2026, 11:45 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>UC610-0816</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>22 Jan 2026, 11:13 AM</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Mayank</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>9878945424</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>3A, 3rd floor , C 2598A, Gold souk mall</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>22 Jan 2026, 11:13 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>UC610-0818</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>22 Jan 2026, 11:13 AM</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>SOUVIK SINHA ROY</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9999161393</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>REGENCY PARK 2 SOCIETY W-185 FLAT , , ,</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>22 Jan 2026, 11:13 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>UC610-0813</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>16 Jan 2026, 07:38 PM</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>22 Jan 2026, 11:00 AM</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Puja Pandey</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>9821204814</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>422, Sector 27,</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>APP</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>22 Jan 2026, 11:00 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>UC610-0811</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>22 Jan 2026, 10:54 AM</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>krishna yadav</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>9871767912</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>ardee city sector 52 b15 ground floor , , ,</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>22 Jan 2026, 10:54 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>UC610-0810</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>22 Jan 2026, 10:50 AM</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ISHITA GUPTA</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9125736020</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1ST FLOOR C1 ARDEE CITY SECTOR 52, , ,</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>22 Jan 2026, 10:50 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>UC610-0528</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>21 Jan 2026, 05:06 PM</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>VANDANA</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>9889563001</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>F704 MAPIL HEIGHT, , ,</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>21 Jan 2026, 05:06 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>UC610-0833</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>21 Jan 2026, 05:05 PM</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>vanshika maheshwari</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7791810225</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>flat no 603 MS07 kendriya vihar sector 56, , ,</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>21 Jan 2026, 05:05 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>UC610-0819</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>21 Jan 2026, 02:12 PM</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Combos Saloon</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7836087861</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Vyapar Kendra Sushant lok 1 GF shop 206 , , ,</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>21 Jan 2026, 02:12 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>UC610-0830</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>21 Jan 2026, 02:12 PM</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Combos Saloon</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7836087861</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Vyapar Kendra Sushant lok 1 GF shop 206 , , ,</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>21 Jan 2026, 02:12 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>UC610-0769</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>05 Jan 2026, 09:38 PM</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>20 Jan 2026, 06:49 PM</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Baibhav</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7739314444</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Plot no. 596, Golf Course Road, Flock coliving sector 43</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>APP</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>20 Jan 2026, 06:49 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>UC610-0774</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>20 Jan 2026, 06:48 PM</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Baibhav</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7739314444</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Plot no. 596, Golf Course Road, Flock coliving sector 43</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>20 Jan 2026, 06:48 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>UC610-0799</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>16 Jan 2026, 10:34 AM</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>shashaank</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>9818934294</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>C 844 A near vyapar, , ,</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>16 Jan 2026, 10:34 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>UC610-0800</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>15 Jan 2026, 07:13 PM</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Rahul</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>9811909170</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>HOUSE NO 122 THIRD FLOOR SUSHANT LOK 1 , , ,</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>15 Jan 2026, 07:13 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>UC610-0781</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>15 Jan 2026, 05:29 PM</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Itisha mam</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>9982156048</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>tower 5 flat no. 1502, , Unitech the palms, south city 1,</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>15 Jan 2026, 05:29 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>UC610-0797</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>13 Jan 2026, 12:49 PM</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>15 Jan 2026, 03:43 PM</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Armaan</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7726881588</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>A55-12, Street Number 55,</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>APP</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>15 Jan 2026, 03:43 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>UC610-0798</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>15 Jan 2026, 03:42 PM</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>stuti verma</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>9682798097</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>first floor 2148 room no 5, sushant lok block c,</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>15 Jan 2026, 03:42 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>UC610-0791</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>11 Jan 2026, 04:15 PM</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>15 Jan 2026, 03:40 PM</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Abhinav Kanaujia</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7307781578</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Room no. 102, First floor, C2934, Block C, Sushant lok phase 1, Sector 43,</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>APP</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>15 Jan 2026, 03:40 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>UC610-0802</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>15 Jan 2026, 03:26 PM</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Itisha mam</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>9982156048</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>tower 5 flat no. 1502, , Unitech the palms, south city 1,</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>15 Jan 2026, 03:26 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>UC610-0738</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>15 Jan 2026, 01:37 PM</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>SAMAR KUMAR</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7700005018</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Stanza living, 152, Silokra Rd, Vijay Vihar, Sector 30, Gurugram, , , ,</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>SHOES</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>15 Jan 2026, 01:37 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>UC610-0805</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>15 Jan 2026, 01:37 PM</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>SAMAR KUMAR</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7700005018</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Stanza living, 152, Silokra Rd, Vijay Vihar, Sector 30, Gurugram, , , ,</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>15 Jan 2026, 01:37 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>UC610-0780</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>09 Jan 2026, 06:56 PM</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>VIJAY YADAV</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>9818867979</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>SECTOR 43, , SECTOR 43,</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>09 Jan 2026, 06:56 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>UC610-0782</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>09 Jan 2026, 01:35 PM</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Combos Saloon</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7836087861</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Vyapar Kendra Sushant lok 1 GF shop 206 , , ,</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>09 Jan 2026, 01:35 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>UC610-0768</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>08 Jan 2026, 05:11 PM</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>surya</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>8448271143</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>SECTOR 53 DLF GURGAON , , ,</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>08 Jan 2026, 05:11 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
           <t>UC610-0759</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>04 Jan 2026, 11:38 AM</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>06 Jan 2026, 01:05 PM</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>Venkatesh</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>7042612642</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>B704, Block B,</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>View Payment Details</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Handle with care</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>View Payment Details</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Handle with care</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
         <is>
           <t>APP</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
         <is>
           <t>06 Jan 2026, 01:05 PM</t>
         </is>
